--- a/7/5/1/1/Series desestacionalizadas 1986 a 2021 - Trimestral.xlsx
+++ b/7/5/1/1/Series desestacionalizadas 1986 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Serie</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2873,22 +2876,22 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>26508</v>
+        <v>26507</v>
       </c>
       <c r="C90">
         <v>6357</v>
       </c>
       <c r="D90">
-        <v>20127</v>
+        <v>20125</v>
       </c>
       <c r="E90">
-        <v>10822</v>
+        <v>10819</v>
       </c>
       <c r="F90">
-        <v>8763</v>
+        <v>8766</v>
       </c>
       <c r="G90">
-        <v>28617</v>
+        <v>28609</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2896,22 +2899,22 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>27524</v>
+        <v>27536</v>
       </c>
       <c r="C91">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="D91">
-        <v>20807</v>
+        <v>20820</v>
       </c>
       <c r="E91">
-        <v>10280</v>
+        <v>10279</v>
       </c>
       <c r="F91">
-        <v>9065</v>
+        <v>9063</v>
       </c>
       <c r="G91">
-        <v>28613</v>
+        <v>28626</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2919,22 +2922,22 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>27074</v>
+        <v>27063</v>
       </c>
       <c r="C92">
         <v>6666</v>
       </c>
       <c r="D92">
-        <v>20364</v>
+        <v>20353</v>
       </c>
       <c r="E92">
-        <v>10356</v>
+        <v>10358</v>
       </c>
       <c r="F92">
-        <v>8956</v>
+        <v>8955</v>
       </c>
       <c r="G92">
-        <v>28393</v>
+        <v>28386</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2942,22 +2945,22 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>26276</v>
+        <v>26264</v>
       </c>
       <c r="C93">
         <v>6397</v>
       </c>
       <c r="D93">
-        <v>19844</v>
+        <v>19831</v>
       </c>
       <c r="E93">
-        <v>10007</v>
+        <v>10011</v>
       </c>
       <c r="F93">
-        <v>8129</v>
+        <v>8130</v>
       </c>
       <c r="G93">
-        <v>28123</v>
+        <v>28115</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2965,22 +2968,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>24819</v>
+        <v>24822</v>
       </c>
       <c r="C94">
         <v>5915</v>
       </c>
       <c r="D94">
-        <v>18884</v>
+        <v>18886</v>
       </c>
       <c r="E94">
-        <v>9922</v>
+        <v>9920</v>
       </c>
       <c r="F94">
-        <v>7129</v>
+        <v>7131</v>
       </c>
       <c r="G94">
-        <v>27882</v>
+        <v>27879</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2988,22 +2991,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>24591</v>
+        <v>24594</v>
       </c>
       <c r="C95">
         <v>5588</v>
       </c>
       <c r="D95">
-        <v>19008</v>
+        <v>19012</v>
       </c>
       <c r="E95">
-        <v>9715</v>
+        <v>9714</v>
       </c>
       <c r="F95">
-        <v>6897</v>
+        <v>6896</v>
       </c>
       <c r="G95">
-        <v>27706</v>
+        <v>27710</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3011,22 +3014,22 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>24887</v>
+        <v>24880</v>
       </c>
       <c r="C96">
         <v>5490</v>
       </c>
       <c r="D96">
-        <v>19418</v>
+        <v>19411</v>
       </c>
       <c r="E96">
-        <v>9917</v>
+        <v>9919</v>
       </c>
       <c r="F96">
-        <v>7068</v>
+        <v>7067</v>
       </c>
       <c r="G96">
-        <v>28025</v>
+        <v>28021</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3034,22 +3037,22 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>26119</v>
+        <v>26109</v>
       </c>
       <c r="C97">
         <v>5650</v>
       </c>
       <c r="D97">
-        <v>20503</v>
+        <v>20492</v>
       </c>
       <c r="E97">
-        <v>10159</v>
+        <v>10163</v>
       </c>
       <c r="F97">
-        <v>7999</v>
+        <v>8000</v>
       </c>
       <c r="G97">
-        <v>28382</v>
+        <v>28376</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3057,22 +3060,22 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>26923</v>
+        <v>26924</v>
       </c>
       <c r="C98">
-        <v>5990</v>
+        <v>5991</v>
       </c>
       <c r="D98">
-        <v>20952</v>
+        <v>20953</v>
       </c>
       <c r="E98">
-        <v>9826</v>
+        <v>9824</v>
       </c>
       <c r="F98">
-        <v>8416</v>
+        <v>8418</v>
       </c>
       <c r="G98">
-        <v>28474</v>
+        <v>28471</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3080,22 +3083,22 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>28310</v>
+        <v>28313</v>
       </c>
       <c r="C99">
         <v>6236</v>
       </c>
       <c r="D99">
-        <v>22102</v>
+        <v>22105</v>
       </c>
       <c r="E99">
-        <v>9873</v>
+        <v>9872</v>
       </c>
       <c r="F99">
-        <v>8870</v>
+        <v>8869</v>
       </c>
       <c r="G99">
-        <v>29439</v>
+        <v>29443</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3103,22 +3106,22 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>28887</v>
+        <v>28880</v>
       </c>
       <c r="C100">
         <v>6425</v>
       </c>
       <c r="D100">
-        <v>22483</v>
+        <v>22476</v>
       </c>
       <c r="E100">
-        <v>10707</v>
+        <v>10709</v>
       </c>
       <c r="F100">
-        <v>9549</v>
+        <v>9548</v>
       </c>
       <c r="G100">
-        <v>30136</v>
+        <v>30132</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3126,22 +3129,22 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>29887</v>
+        <v>29877</v>
       </c>
       <c r="C101">
         <v>6871</v>
       </c>
       <c r="D101">
-        <v>23013</v>
+        <v>23002</v>
       </c>
       <c r="E101">
-        <v>10240</v>
+        <v>10244</v>
       </c>
       <c r="F101">
         <v>9693</v>
       </c>
       <c r="G101">
-        <v>30516</v>
+        <v>30510</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3149,22 +3152,22 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>30633</v>
+        <v>30632</v>
       </c>
       <c r="C102">
-        <v>7315</v>
+        <v>7316</v>
       </c>
       <c r="D102">
-        <v>23319</v>
+        <v>23318</v>
       </c>
       <c r="E102">
-        <v>10581</v>
+        <v>10579</v>
       </c>
       <c r="F102">
-        <v>10392</v>
+        <v>10394</v>
       </c>
       <c r="G102">
-        <v>30896</v>
+        <v>30891</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3172,22 +3175,22 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>31127</v>
+        <v>31135</v>
       </c>
       <c r="C103">
         <v>7251</v>
       </c>
       <c r="D103">
-        <v>23884</v>
+        <v>23892</v>
       </c>
       <c r="E103">
-        <v>10713</v>
+        <v>10712</v>
       </c>
       <c r="F103">
         <v>10595</v>
       </c>
       <c r="G103">
-        <v>31315</v>
+        <v>31321</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3195,22 +3198,22 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>31555</v>
+        <v>31546</v>
       </c>
       <c r="C104">
         <v>7296</v>
       </c>
       <c r="D104">
-        <v>24268</v>
+        <v>24259</v>
       </c>
       <c r="E104">
-        <v>10648</v>
+        <v>10650</v>
       </c>
       <c r="F104">
         <v>10810</v>
       </c>
       <c r="G104">
-        <v>31441</v>
+        <v>31435</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3218,22 +3221,22 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>31389</v>
+        <v>31378</v>
       </c>
       <c r="C105">
         <v>7814</v>
       </c>
       <c r="D105">
-        <v>23564</v>
+        <v>23553</v>
       </c>
       <c r="E105">
-        <v>10899</v>
+        <v>10903</v>
       </c>
       <c r="F105">
-        <v>10324</v>
+        <v>10323</v>
       </c>
       <c r="G105">
-        <v>32051</v>
+        <v>32045</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3241,22 +3244,22 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>32258</v>
+        <v>32254</v>
       </c>
       <c r="C106">
         <v>7700</v>
       </c>
       <c r="D106">
-        <v>24560</v>
+        <v>24556</v>
       </c>
       <c r="E106">
-        <v>10790</v>
+        <v>10788</v>
       </c>
       <c r="F106">
-        <v>10496</v>
+        <v>10497</v>
       </c>
       <c r="G106">
-        <v>32603</v>
+        <v>32597</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3264,22 +3267,22 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>33190</v>
+        <v>33200</v>
       </c>
       <c r="C107">
         <v>7763</v>
       </c>
       <c r="D107">
-        <v>25430</v>
+        <v>25441</v>
       </c>
       <c r="E107">
-        <v>10717</v>
+        <v>10715</v>
       </c>
       <c r="F107">
-        <v>10835</v>
+        <v>10836</v>
       </c>
       <c r="G107">
-        <v>33081</v>
+        <v>33089</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3287,22 +3290,22 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>34359</v>
+        <v>34350</v>
       </c>
       <c r="C108">
         <v>8582</v>
       </c>
       <c r="D108">
-        <v>25776</v>
+        <v>25768</v>
       </c>
       <c r="E108">
-        <v>10196</v>
+        <v>10198</v>
       </c>
       <c r="F108">
-        <v>11168</v>
+        <v>11167</v>
       </c>
       <c r="G108">
-        <v>33300</v>
+        <v>33294</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3310,22 +3313,22 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>34093</v>
+        <v>34081</v>
       </c>
       <c r="C109">
         <v>8883</v>
       </c>
       <c r="D109">
-        <v>25207</v>
+        <v>25195</v>
       </c>
       <c r="E109">
-        <v>11217</v>
+        <v>11221</v>
       </c>
       <c r="F109">
-        <v>11784</v>
+        <v>11783</v>
       </c>
       <c r="G109">
-        <v>33541</v>
+        <v>33533</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3333,22 +3336,22 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>34551</v>
+        <v>34547</v>
       </c>
       <c r="C110">
         <v>8666</v>
       </c>
       <c r="D110">
-        <v>25885</v>
+        <v>25881</v>
       </c>
       <c r="E110">
-        <v>10621</v>
+        <v>10619</v>
       </c>
       <c r="F110">
         <v>11242</v>
       </c>
       <c r="G110">
-        <v>33929</v>
+        <v>33924</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3356,22 +3359,22 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>34608</v>
+        <v>34623</v>
       </c>
       <c r="C111">
         <v>8808</v>
       </c>
       <c r="D111">
-        <v>25800</v>
+        <v>25816</v>
       </c>
       <c r="E111">
-        <v>11390</v>
+        <v>11387</v>
       </c>
       <c r="F111">
-        <v>11562</v>
+        <v>11563</v>
       </c>
       <c r="G111">
-        <v>34436</v>
+        <v>34448</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3379,22 +3382,22 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>34692</v>
+        <v>34684</v>
       </c>
       <c r="C112">
         <v>8609</v>
       </c>
       <c r="D112">
-        <v>26083</v>
+        <v>26075</v>
       </c>
       <c r="E112">
         <v>11406</v>
       </c>
       <c r="F112">
-        <v>11348</v>
+        <v>11347</v>
       </c>
       <c r="G112">
-        <v>34750</v>
+        <v>34742</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3402,22 +3405,22 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>34881</v>
+        <v>34869</v>
       </c>
       <c r="C113">
         <v>8191</v>
       </c>
       <c r="D113">
-        <v>26689</v>
+        <v>26678</v>
       </c>
       <c r="E113">
-        <v>11010</v>
+        <v>11012</v>
       </c>
       <c r="F113">
-        <v>11066</v>
+        <v>11065</v>
       </c>
       <c r="G113">
-        <v>34824</v>
+        <v>34815</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3425,22 +3428,22 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>34545</v>
+        <v>34538</v>
       </c>
       <c r="C114">
         <v>8262</v>
       </c>
       <c r="D114">
-        <v>26283</v>
+        <v>26275</v>
       </c>
       <c r="E114">
-        <v>11074</v>
+        <v>11075</v>
       </c>
       <c r="F114">
         <v>10746</v>
       </c>
       <c r="G114">
-        <v>34873</v>
+        <v>34867</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3448,22 +3451,22 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>34264</v>
+        <v>34283</v>
       </c>
       <c r="C115">
-        <v>8332</v>
+        <v>8331</v>
       </c>
       <c r="D115">
-        <v>25932</v>
+        <v>25952</v>
       </c>
       <c r="E115">
-        <v>11328</v>
+        <v>11324</v>
       </c>
       <c r="F115">
-        <v>10575</v>
+        <v>10576</v>
       </c>
       <c r="G115">
-        <v>35017</v>
+        <v>35031</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3471,22 +3474,22 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>34306</v>
+        <v>34295</v>
       </c>
       <c r="C116">
         <v>7930</v>
       </c>
       <c r="D116">
-        <v>26374</v>
+        <v>26364</v>
       </c>
       <c r="E116">
         <v>10938</v>
       </c>
       <c r="F116">
-        <v>10231</v>
+        <v>10230</v>
       </c>
       <c r="G116">
-        <v>35013</v>
+        <v>35002</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3494,22 +3497,22 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>34919</v>
+        <v>34907</v>
       </c>
       <c r="C117">
-        <v>8043</v>
+        <v>8044</v>
       </c>
       <c r="D117">
-        <v>26873</v>
+        <v>26860</v>
       </c>
       <c r="E117">
-        <v>11212</v>
+        <v>11214</v>
       </c>
       <c r="F117">
         <v>10715</v>
       </c>
       <c r="G117">
-        <v>35415</v>
+        <v>35406</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3517,22 +3520,22 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>34880</v>
+        <v>34872</v>
       </c>
       <c r="C118">
-        <v>8040</v>
+        <v>8039</v>
       </c>
       <c r="D118">
-        <v>26844</v>
+        <v>26836</v>
       </c>
       <c r="E118">
-        <v>11034</v>
+        <v>11038</v>
       </c>
       <c r="F118">
-        <v>10417</v>
+        <v>10418</v>
       </c>
       <c r="G118">
-        <v>35505</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3540,22 +3543,22 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>35119</v>
+        <v>35144</v>
       </c>
       <c r="C119">
-        <v>7982</v>
+        <v>7981</v>
       </c>
       <c r="D119">
-        <v>27143</v>
+        <v>27170</v>
       </c>
       <c r="E119">
-        <v>10790</v>
+        <v>10784</v>
       </c>
       <c r="F119">
-        <v>9989</v>
+        <v>9991</v>
       </c>
       <c r="G119">
-        <v>35948</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3563,22 +3566,22 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>35713</v>
+        <v>35695</v>
       </c>
       <c r="C120">
         <v>8349</v>
       </c>
       <c r="D120">
-        <v>27365</v>
+        <v>27347</v>
       </c>
       <c r="E120">
         <v>10852</v>
       </c>
       <c r="F120">
-        <v>10707</v>
+        <v>10704</v>
       </c>
       <c r="G120">
-        <v>35843</v>
+        <v>35830</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3586,22 +3589,22 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>35769</v>
+        <v>35756</v>
       </c>
       <c r="C121">
-        <v>8078</v>
+        <v>8080</v>
       </c>
       <c r="D121">
-        <v>27699</v>
+        <v>27684</v>
       </c>
       <c r="E121">
-        <v>11069</v>
+        <v>11070</v>
       </c>
       <c r="F121">
         <v>10645</v>
       </c>
       <c r="G121">
-        <v>36192</v>
+        <v>36180</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3609,22 +3612,22 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>35811</v>
+        <v>35802</v>
       </c>
       <c r="C122">
         <v>8105</v>
       </c>
       <c r="D122">
-        <v>27715</v>
+        <v>27707</v>
       </c>
       <c r="E122">
-        <v>11090</v>
+        <v>11099</v>
       </c>
       <c r="F122">
-        <v>10483</v>
+        <v>10489</v>
       </c>
       <c r="G122">
-        <v>36424</v>
+        <v>36418</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3632,22 +3635,22 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>35612</v>
+        <v>35644</v>
       </c>
       <c r="C123">
-        <v>8143</v>
+        <v>8139</v>
       </c>
       <c r="D123">
-        <v>27475</v>
+        <v>27511</v>
       </c>
       <c r="E123">
-        <v>10949</v>
+        <v>10936</v>
       </c>
       <c r="F123">
-        <v>10253</v>
+        <v>10252</v>
       </c>
       <c r="G123">
-        <v>36320</v>
+        <v>36341</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3655,22 +3658,22 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>36317</v>
+        <v>36293</v>
       </c>
       <c r="C124">
-        <v>7991</v>
+        <v>7992</v>
       </c>
       <c r="D124">
-        <v>28346</v>
+        <v>28320</v>
       </c>
       <c r="E124">
-        <v>10915</v>
+        <v>10916</v>
       </c>
       <c r="F124">
-        <v>10757</v>
+        <v>10751</v>
       </c>
       <c r="G124">
-        <v>36492</v>
+        <v>36473</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3678,22 +3681,22 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>36224</v>
+        <v>36211</v>
       </c>
       <c r="C125">
-        <v>7780</v>
+        <v>7782</v>
       </c>
       <c r="D125">
-        <v>28473</v>
+        <v>28457</v>
       </c>
       <c r="E125">
-        <v>10989</v>
+        <v>10992</v>
       </c>
       <c r="F125">
         <v>10647</v>
       </c>
       <c r="G125">
-        <v>36580</v>
+        <v>36569</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3701,22 +3704,22 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>36774</v>
+        <v>36765</v>
       </c>
       <c r="C126">
         <v>7879</v>
       </c>
       <c r="D126">
-        <v>28922</v>
+        <v>28914</v>
       </c>
       <c r="E126">
-        <v>10430</v>
+        <v>10446</v>
       </c>
       <c r="F126">
-        <v>11010</v>
+        <v>11020</v>
       </c>
       <c r="G126">
-        <v>36270</v>
+        <v>36268</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3724,22 +3727,22 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>36919</v>
+        <v>36957</v>
       </c>
       <c r="C127">
-        <v>7609</v>
+        <v>7605</v>
       </c>
       <c r="D127">
-        <v>29348</v>
+        <v>29391</v>
       </c>
       <c r="E127">
-        <v>10533</v>
+        <v>10511</v>
       </c>
       <c r="F127">
-        <v>10893</v>
+        <v>10889</v>
       </c>
       <c r="G127">
-        <v>36624</v>
+        <v>36646</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3747,22 +3750,22 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>37050</v>
+        <v>37021</v>
       </c>
       <c r="C128">
-        <v>7705</v>
+        <v>7708</v>
       </c>
       <c r="D128">
-        <v>29381</v>
+        <v>29349</v>
       </c>
       <c r="E128">
         <v>11138</v>
       </c>
       <c r="F128">
-        <v>10888</v>
+        <v>10881</v>
       </c>
       <c r="G128">
-        <v>37325</v>
+        <v>37303</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3770,22 +3773,22 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>37732</v>
+        <v>37718</v>
       </c>
       <c r="C129">
-        <v>7842</v>
+        <v>7843</v>
       </c>
       <c r="D129">
-        <v>29927</v>
+        <v>29912</v>
       </c>
       <c r="E129">
-        <v>11159</v>
+        <v>11163</v>
       </c>
       <c r="F129">
-        <v>11291</v>
+        <v>11294</v>
       </c>
       <c r="G129">
-        <v>37648</v>
+        <v>37635</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3793,22 +3796,22 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>38111</v>
+        <v>38092</v>
       </c>
       <c r="C130">
-        <v>8020</v>
+        <v>8019</v>
       </c>
       <c r="D130">
-        <v>30125</v>
+        <v>30107</v>
       </c>
       <c r="E130">
-        <v>11454</v>
+        <v>11489</v>
       </c>
       <c r="F130">
-        <v>11583</v>
+        <v>11594</v>
       </c>
       <c r="G130">
-        <v>38050</v>
+        <v>38055</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3816,22 +3819,22 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>38878</v>
+        <v>38931</v>
       </c>
       <c r="C131">
-        <v>8078</v>
+        <v>8073</v>
       </c>
       <c r="D131">
-        <v>30838</v>
+        <v>30896</v>
       </c>
       <c r="E131">
-        <v>11488</v>
+        <v>11445</v>
       </c>
       <c r="F131">
-        <v>12097</v>
+        <v>12089</v>
       </c>
       <c r="G131">
-        <v>38369</v>
+        <v>38386</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3839,22 +3842,22 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>38722</v>
+        <v>38684</v>
       </c>
       <c r="C132">
-        <v>8125</v>
+        <v>8130</v>
       </c>
       <c r="D132">
-        <v>30632</v>
+        <v>30589</v>
       </c>
       <c r="E132">
-        <v>11280</v>
+        <v>11285</v>
       </c>
       <c r="F132">
-        <v>11784</v>
+        <v>11778</v>
       </c>
       <c r="G132">
-        <v>38300</v>
+        <v>38272</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3862,22 +3865,22 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>39404</v>
+        <v>39398</v>
       </c>
       <c r="C133">
-        <v>8378</v>
+        <v>8379</v>
       </c>
       <c r="D133">
-        <v>31060</v>
+        <v>31052</v>
       </c>
       <c r="E133">
-        <v>11394</v>
+        <v>11395</v>
       </c>
       <c r="F133">
-        <v>12184</v>
+        <v>12189</v>
       </c>
       <c r="G133">
-        <v>38716</v>
+        <v>38706</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3885,22 +3888,22 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>39129</v>
+        <v>39094</v>
       </c>
       <c r="C134">
-        <v>8385</v>
+        <v>8379</v>
       </c>
       <c r="D134">
-        <v>30776</v>
+        <v>30747</v>
       </c>
       <c r="E134">
-        <v>11197</v>
+        <v>11250</v>
       </c>
       <c r="F134">
-        <v>11826</v>
+        <v>11831</v>
       </c>
       <c r="G134">
-        <v>38588</v>
+        <v>38599</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3908,22 +3911,22 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>39577</v>
+        <v>39652</v>
       </c>
       <c r="C135">
-        <v>8487</v>
+        <v>8486</v>
       </c>
       <c r="D135">
-        <v>31122</v>
+        <v>31199</v>
       </c>
       <c r="E135">
-        <v>11071</v>
+        <v>11008</v>
       </c>
       <c r="F135">
-        <v>11732</v>
+        <v>11724</v>
       </c>
       <c r="G135">
-        <v>38999</v>
+        <v>39019</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3931,22 +3934,22 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>39649</v>
+        <v>39595</v>
       </c>
       <c r="C136">
-        <v>8558</v>
+        <v>8566</v>
       </c>
       <c r="D136">
-        <v>31122</v>
+        <v>31059</v>
       </c>
       <c r="E136">
-        <v>11298</v>
+        <v>11314</v>
       </c>
       <c r="F136">
-        <v>11646</v>
+        <v>11643</v>
       </c>
       <c r="G136">
-        <v>39367</v>
+        <v>39331</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3954,22 +3957,22 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>38182</v>
+        <v>38186</v>
       </c>
       <c r="C137">
         <v>8625</v>
       </c>
       <c r="D137">
-        <v>29579</v>
+        <v>29582</v>
       </c>
       <c r="E137">
-        <v>10892</v>
+        <v>10886</v>
       </c>
       <c r="F137">
-        <v>11319</v>
+        <v>11325</v>
       </c>
       <c r="G137">
-        <v>37826</v>
+        <v>37818</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3977,22 +3980,22 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>37937</v>
+        <v>37878</v>
       </c>
       <c r="C138">
-        <v>8333</v>
+        <v>8320</v>
       </c>
       <c r="D138">
-        <v>29628</v>
+        <v>29582</v>
       </c>
       <c r="E138">
-        <v>11236</v>
+        <v>11309</v>
       </c>
       <c r="F138">
-        <v>10670</v>
+        <v>10671</v>
       </c>
       <c r="G138">
-        <v>38541</v>
+        <v>38552</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4000,22 +4003,22 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>31644</v>
+        <v>31738</v>
       </c>
       <c r="C139">
-        <v>6789</v>
+        <v>6791</v>
       </c>
       <c r="D139">
-        <v>24884</v>
+        <v>24977</v>
       </c>
       <c r="E139">
-        <v>11354</v>
+        <v>11259</v>
       </c>
       <c r="F139">
-        <v>9342</v>
+        <v>9334</v>
       </c>
       <c r="G139">
-        <v>33656</v>
+        <v>33665</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4023,22 +4026,22 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>34851</v>
+        <v>34784</v>
       </c>
       <c r="C140">
-        <v>7088</v>
+        <v>7095</v>
       </c>
       <c r="D140">
-        <v>27818</v>
+        <v>27742</v>
       </c>
       <c r="E140">
-        <v>10547</v>
+        <v>10580</v>
       </c>
       <c r="F140">
         <v>9904</v>
       </c>
       <c r="G140">
-        <v>35528</v>
+        <v>35493</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4046,22 +4049,22 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>37571</v>
+        <v>37595</v>
       </c>
       <c r="C141">
         <v>7875</v>
       </c>
       <c r="D141">
-        <v>29742</v>
+        <v>29766</v>
       </c>
       <c r="E141">
-        <v>10832</v>
+        <v>10811</v>
       </c>
       <c r="F141">
-        <v>10660</v>
+        <v>10669</v>
       </c>
       <c r="G141">
-        <v>37792</v>
+        <v>37788</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4069,22 +4072,45 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>40894</v>
+        <v>40931</v>
       </c>
       <c r="C142">
-        <v>8442</v>
+        <v>8461</v>
       </c>
       <c r="D142">
-        <v>32509</v>
+        <v>32525</v>
       </c>
       <c r="E142">
-        <v>10602</v>
+        <v>10647</v>
       </c>
       <c r="F142">
-        <v>12487</v>
+        <v>12508</v>
       </c>
       <c r="G142">
-        <v>38998</v>
+        <v>39060</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>41571</v>
+      </c>
+      <c r="C143">
+        <v>8487</v>
+      </c>
+      <c r="D143">
+        <v>33147</v>
+      </c>
+      <c r="E143">
+        <v>10919</v>
+      </c>
+      <c r="F143">
+        <v>13043</v>
+      </c>
+      <c r="G143">
+        <v>39460</v>
       </c>
     </row>
   </sheetData>
